--- a/REPORT_20180423.xlsx
+++ b/REPORT_20180423.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="THR_CALENDAR" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,10 @@
     <sheet name="1.3 ORGANIZATION – COMPANY" sheetId="3" r:id="rId3"/>
     <sheet name="FORM REPORT" sheetId="4" r:id="rId4"/>
     <sheet name="2. EMPLOYEE MODULE" sheetId="5" r:id="rId5"/>
+    <sheet name="3.ATTENDANCE MODULE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="936">
   <si>
     <t>PK</t>
   </si>
@@ -411,9 +413,6 @@
     <t>Xóa các thông tin về công ty</t>
   </si>
   <si>
-    <t>Procedure</t>
-  </si>
-  <si>
     <t>•Lưu</t>
   </si>
   <si>
@@ -432,27 +431,18 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>•Giao diện</t>
-  </si>
-  <si>
     <t>Xem được bố trí phòng ban của một công ty</t>
   </si>
   <si>
     <t>•Move Department</t>
   </si>
   <si>
-    <t>Thay đổi vị trí của phòng ban</t>
-  </si>
-  <si>
     <t>•Move Employee</t>
   </si>
   <si>
     <t>•New Sub</t>
   </si>
   <si>
-    <t>Error SQL</t>
-  </si>
-  <si>
     <t>•New</t>
   </si>
   <si>
@@ -2557,6 +2547,297 @@
   </si>
   <si>
     <t xml:space="preserve">0 || PK </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>form/ag/io/agio0060.aspx</t>
+  </si>
+  <si>
+    <t>form/ag/io/agio00010.aspx</t>
+  </si>
+  <si>
+    <t>form/ag/io/agio0060_shb.aspx</t>
+  </si>
+  <si>
+    <t>form/ag/bh/agbh00010.aspx</t>
+  </si>
+  <si>
+    <t>Di chuyển, thay đổi phòng ban. Mục đích sắp xếp lại vị trí phòng ban trong công ty</t>
+  </si>
+  <si>
+    <t>THR_TIME_TEMP</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>WORK_DT</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>ID_VD</t>
+  </si>
+  <si>
+    <t>CARD_NO</t>
+  </si>
+  <si>
+    <t>TIME_TYPE</t>
+  </si>
+  <si>
+    <t>Ngày làm việc</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>THR_TIME_MACHINE</t>
+  </si>
+  <si>
+    <t>Chứa data thô từ máy chấm công</t>
+  </si>
+  <si>
+    <t>Chứa data xử lý giờ chính thức</t>
+  </si>
+  <si>
+    <t>THR_EMP_PK</t>
+  </si>
+  <si>
+    <t>THR_WS_PK</t>
+  </si>
+  <si>
+    <t>TIME_IN</t>
+  </si>
+  <si>
+    <t>TIME_OUT</t>
+  </si>
+  <si>
+    <t>WORK_TIME</t>
+  </si>
+  <si>
+    <t>PAY_RATE</t>
+  </si>
+  <si>
+    <t>TIME_IN_ORG</t>
+  </si>
+  <si>
+    <t>MOD_BYHAND_YN</t>
+  </si>
+  <si>
+    <t>CLOSE_YN</t>
+  </si>
+  <si>
+    <t>CLOSE_DT</t>
+  </si>
+  <si>
+    <t>TIME_OUT_ORG</t>
+  </si>
+  <si>
+    <t>DATE_IN</t>
+  </si>
+  <si>
+    <t>DATE_OUT</t>
+  </si>
+  <si>
+    <t>MOD_AUTO_YN</t>
+  </si>
+  <si>
+    <t>NO_SCAN_FLAG</t>
+  </si>
+  <si>
+    <t>TEMP_IN</t>
+  </si>
+  <si>
+    <t>TEMP_OUT</t>
+  </si>
+  <si>
+    <t>DATE_TEMP_IN</t>
+  </si>
+  <si>
+    <t>DATE_TEMP_OUT</t>
+  </si>
+  <si>
+    <t>MINUS_HOURS</t>
+  </si>
+  <si>
+    <t>CLOSE_M_YN</t>
+  </si>
+  <si>
+    <t>CLOSE_M_DT</t>
+  </si>
+  <si>
+    <t>MOD_TIMES</t>
+  </si>
+  <si>
+    <t>STATUS_EVENT</t>
+  </si>
+  <si>
+    <t>R_WS</t>
+  </si>
+  <si>
+    <t>R_TIME_IN</t>
+  </si>
+  <si>
+    <t>R_DATE_IN</t>
+  </si>
+  <si>
+    <t>R_TIME_OUT</t>
+  </si>
+  <si>
+    <t>R_DATE_OUT</t>
+  </si>
+  <si>
+    <t>R_WT</t>
+  </si>
+  <si>
+    <t>R_CHECK</t>
+  </si>
+  <si>
+    <t>MINUS_WT</t>
+  </si>
+  <si>
+    <t>APPROVE_YN</t>
+  </si>
+  <si>
+    <t>IMPORT_SEQ</t>
+  </si>
+  <si>
+    <t>FILL_SHIFT_TYPE</t>
+  </si>
+  <si>
+    <t>E_HOUR</t>
+  </si>
+  <si>
+    <t>OT_PLUS</t>
+  </si>
+  <si>
+    <t>WEEK_NUM_IN_MONTH</t>
+  </si>
+  <si>
+    <t>WEEK_NUM</t>
+  </si>
+  <si>
+    <t>THR_ATTENDANCE_MODIFY_PK</t>
+  </si>
+  <si>
+    <t>MEAL_WT</t>
+  </si>
+  <si>
+    <t>MEAL_OT</t>
+  </si>
+  <si>
+    <t>MEAL_WT_CASH</t>
+  </si>
+  <si>
+    <t>MEAL_OT_CASH</t>
+  </si>
+  <si>
+    <t>MEAL_WT_DEDUCT</t>
+  </si>
+  <si>
+    <t>MEAL_OT_DEDUCT</t>
+  </si>
+  <si>
+    <t>TEMP_OUT2</t>
+  </si>
+  <si>
+    <t>TEMP_IN2</t>
+  </si>
+  <si>
+    <t>TEMP_NT2</t>
+  </si>
+  <si>
+    <t>TEMP_NT</t>
+  </si>
+  <si>
+    <t>TEMP_OT</t>
+  </si>
+  <si>
+    <t>TEMP_HT</t>
+  </si>
+  <si>
+    <t>TEMP_WT</t>
+  </si>
+  <si>
+    <t>TEMP_NT3</t>
+  </si>
+  <si>
+    <t>CONFIRM_BY</t>
+  </si>
+  <si>
+    <t>PK EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PK WORK GROUP</t>
+  </si>
+  <si>
+    <t>PK WORK SHIFT ( ca làm việc )</t>
+  </si>
+  <si>
+    <t>giờ vào</t>
+  </si>
+  <si>
+    <t>giờ ra</t>
+  </si>
+  <si>
+    <t>số giờ làm việc</t>
+  </si>
+  <si>
+    <t>Ngày vào</t>
+  </si>
+  <si>
+    <t>Ngày ra</t>
+  </si>
+  <si>
+    <t>PK TCO_COMPANY ( pk của công ty)</t>
+  </si>
+  <si>
+    <t>Chứa data xử lý giờ tăng ca</t>
+  </si>
+  <si>
+    <t>THR_EXTRA_TIME</t>
+  </si>
+  <si>
+    <t>OT_TYPE</t>
+  </si>
+  <si>
+    <t>START_TIME</t>
+  </si>
+  <si>
+    <t>END_TIME</t>
+  </si>
+  <si>
+    <t>OT_TIME</t>
+  </si>
+  <si>
+    <t>START_TIME_ORG</t>
+  </si>
+  <si>
+    <t>END_TIME_ORG</t>
+  </si>
+  <si>
+    <t>OT_APPROVE</t>
+  </si>
+  <si>
+    <t>NOTE_EAPPROVE</t>
+  </si>
+  <si>
+    <t>pk EMPLOYEE</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +3002,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2838,6 +3119,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -3123,7 +3407,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,7 +4555,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4329,7 +4613,7 @@
         <v>107</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>127</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,7 +4636,9 @@
       <c r="C3" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
@@ -4456,7 +4742,9 @@
       <c r="C15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -4481,7 +4769,7 @@
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>110</v>
@@ -4491,17 +4779,17 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>112</v>
@@ -4510,7 +4798,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="35"/>
@@ -4518,30 +4806,34 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="17"/>
+        <v>844</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>112</v>
@@ -4551,27 +4843,27 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>112</v>
@@ -4581,10 +4873,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D29" s="18"/>
     </row>
@@ -4597,8 +4889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,10 +4916,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>4</v>
@@ -4635,90 +4927,90 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -4728,24 +5020,24 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W13" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>2</v>
@@ -4758,7 +5050,7 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>2</v>
@@ -4770,7 +5062,7 @@
         <v>59</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>2</v>
@@ -4784,7 +5076,7 @@
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="R14" s="41" t="s">
         <v>2</v>
@@ -4796,7 +5088,7 @@
         <v>59</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W14" s="41" t="s">
         <v>2</v>
@@ -4810,395 +5102,395 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="43"/>
       <c r="F15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="43"/>
       <c r="F16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="T16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="43"/>
       <c r="F17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="43"/>
       <c r="P17" s="43"/>
       <c r="Q17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="T17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="43"/>
       <c r="F18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="T18" s="3"/>
       <c r="V18" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="43"/>
       <c r="F19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="43"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="T19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="43"/>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="I20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="T20" s="3"/>
       <c r="V20" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="43"/>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
       <c r="Q21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="43"/>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>11</v>
@@ -5206,48 +5498,48 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="V22" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="43"/>
       <c r="F23" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>10</v>
@@ -5255,7 +5547,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>11</v>
@@ -5265,40 +5557,40 @@
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="T23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="43"/>
       <c r="F24" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>13</v>
@@ -5306,7 +5598,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>10</v>
@@ -5316,36 +5608,36 @@
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="V24" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="43"/>
       <c r="F25" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
@@ -5353,7 +5645,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>13</v>
@@ -5363,46 +5655,46 @@
       <c r="O25" s="43"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="V25" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="43"/>
       <c r="F26" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>12</v>
@@ -5412,157 +5704,157 @@
       <c r="O26" s="43"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="43"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="T27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="43"/>
       <c r="P28" s="43"/>
       <c r="Q28" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="T28" s="3"/>
       <c r="V28" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="43"/>
       <c r="F29" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -5570,46 +5862,46 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="V29" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="43"/>
       <c r="F30" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
       <c r="Q30" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>11</v>
@@ -5617,46 +5909,46 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="43"/>
       <c r="F31" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="43"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>12</v>
@@ -5664,7 +5956,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="V31" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
@@ -5674,38 +5966,38 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="43"/>
       <c r="F32" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="43"/>
       <c r="P32" s="43"/>
       <c r="Q32" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>13</v>
@@ -5713,62 +6005,62 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="43"/>
       <c r="F33" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="T33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>11</v>
@@ -5778,36 +6070,36 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="43"/>
       <c r="F34" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>10</v>
@@ -5817,38 +6109,38 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>13</v>
@@ -5858,36 +6150,36 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="43"/>
       <c r="F36" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I36" s="3"/>
       <c r="Q36" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>12</v>
@@ -5897,325 +6189,325 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="43"/>
       <c r="F37" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I37" s="3"/>
       <c r="Q37" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="V37" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E38" s="43"/>
       <c r="F38" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="43"/>
       <c r="F39" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I39" s="3"/>
       <c r="Q39" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="V40" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="I41" s="3"/>
       <c r="Q41" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="43"/>
       <c r="F42" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I42" s="3"/>
       <c r="Q42" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="V42" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="43"/>
       <c r="F43" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="I43" s="3"/>
       <c r="Q43" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="43"/>
       <c r="F44" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="Q44" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="W44" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="43"/>
       <c r="Q45" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="V45" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W45" s="41" t="s">
         <v>2</v>
@@ -6229,54 +6521,54 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E46" s="43"/>
       <c r="G46" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="V46" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="43"/>
       <c r="F47" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>2</v>
@@ -6288,192 +6580,192 @@
         <v>59</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="43"/>
       <c r="F48" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I48" s="3"/>
       <c r="Q48" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="V48" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="43"/>
       <c r="F49" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="I49" s="3"/>
       <c r="Q49" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="V49" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="43"/>
       <c r="F50" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="I50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="V50" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="Y50" s="3"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I51" s="3"/>
       <c r="Q51" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="V51" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
@@ -6481,36 +6773,36 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="V52" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="43"/>
       <c r="F53" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
@@ -6518,36 +6810,36 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="Q53" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="V53" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="43"/>
       <c r="F54" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>12</v>
@@ -6555,15 +6847,15 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="Q54" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="V54" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>11</v>
@@ -6573,18 +6865,18 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="43"/>
       <c r="F55" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>13</v>
@@ -6592,15 +6884,15 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="Q55" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="V55" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="W55" s="3" t="s">
         <v>10</v>
@@ -6610,32 +6902,32 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="43"/>
       <c r="F56" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="Q56" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="V56" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="W56" s="3" t="s">
         <v>13</v>
@@ -6645,18 +6937,18 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="43"/>
       <c r="F57" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>58</v>
@@ -6664,15 +6956,15 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="Q57" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="V57" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>12</v>
@@ -6682,80 +6974,80 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="43"/>
       <c r="F58" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="Q58" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="V58" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="Y58" s="3"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="43"/>
       <c r="F59" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="Q59" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="43"/>
       <c r="F60" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>68</v>
@@ -6763,37 +7055,37 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="Q60" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="W60" s="44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="43"/>
       <c r="Q61" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
       <c r="V61" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W61" s="41" t="s">
         <v>2</v>
@@ -6807,296 +7099,296 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="43"/>
       <c r="Q62" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="V62" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="43"/>
       <c r="Q63" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="V63" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Y63" s="3"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="43"/>
       <c r="Q64" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="V64" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="43"/>
       <c r="Q65" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="V65" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="43"/>
       <c r="Q66" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="V66" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W66" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="43"/>
       <c r="V67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="43"/>
       <c r="V68" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W68" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="43"/>
       <c r="V69" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="43"/>
       <c r="V70" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="43"/>
       <c r="V71" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="43"/>
       <c r="V72" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="W72" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="43"/>
       <c r="V73" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="W73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="Y73" s="3"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="43"/>
       <c r="V74" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W74" s="3" t="s">
         <v>10</v>
@@ -7106,16 +7398,16 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="43"/>
       <c r="V75" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="W75" s="3" t="s">
         <v>11</v>
@@ -7125,16 +7417,16 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="43"/>
       <c r="V76" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>13</v>
@@ -7144,16 +7436,16 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="43"/>
       <c r="V77" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="W77" s="3" t="s">
         <v>12</v>
@@ -7163,26 +7455,26 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="43"/>
       <c r="V78" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B79" s="41" t="s">
         <v>4</v>
@@ -7191,55 +7483,55 @@
       <c r="D79" s="3"/>
       <c r="E79" s="43"/>
       <c r="V79" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="43"/>
       <c r="V80" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="43"/>
       <c r="V81" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>9</v>
@@ -7248,17 +7540,17 @@
       <c r="D82" s="3"/>
       <c r="E82" s="43"/>
       <c r="V82" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B83" s="41" t="s">
         <v>11</v>
@@ -7267,17 +7559,17 @@
       <c r="D83" s="3"/>
       <c r="E83" s="43"/>
       <c r="V83" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B84" s="41" t="s">
         <v>10</v>
@@ -7286,17 +7578,17 @@
       <c r="D84" s="3"/>
       <c r="E84" s="43"/>
       <c r="V84" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B85" s="41" t="s">
         <v>13</v>
@@ -7305,17 +7597,17 @@
       <c r="D85" s="3"/>
       <c r="E85" s="43"/>
       <c r="V85" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B86" s="41" t="s">
         <v>12</v>
@@ -7324,590 +7616,590 @@
       <c r="D86" s="3"/>
       <c r="E86" s="43"/>
       <c r="V86" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="43"/>
       <c r="V87" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="43"/>
       <c r="V88" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="43"/>
       <c r="V89" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="43"/>
       <c r="V90" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="43"/>
       <c r="V91" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="43"/>
       <c r="V92" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="43"/>
       <c r="V93" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="43"/>
       <c r="V94" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="43"/>
       <c r="V95" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="43"/>
       <c r="V96" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="43"/>
       <c r="V97" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="43"/>
       <c r="V98" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="43"/>
       <c r="V99" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="43"/>
       <c r="V100" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="43"/>
       <c r="V101" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="43"/>
       <c r="V102" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="43"/>
       <c r="V103" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B104" s="41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="43"/>
       <c r="V104" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B105" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="43"/>
       <c r="V105" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="43"/>
       <c r="V106" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="43"/>
       <c r="V107" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="43"/>
       <c r="V108" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B109" s="41" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="43"/>
       <c r="V109" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="43"/>
       <c r="V110" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="43"/>
       <c r="V111" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="43"/>
       <c r="V112" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="43"/>
       <c r="V113" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="43"/>
       <c r="V114" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="W114" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="43"/>
       <c r="V115" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="W115" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="43"/>
       <c r="V116" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="W116" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -7915,10 +8207,10 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -7926,10 +8218,10 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -7937,10 +8229,10 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -7948,10 +8240,10 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B121" s="41" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -7959,10 +8251,10 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -7970,10 +8262,10 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -7981,10 +8273,10 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -7992,10 +8284,10 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -8003,10 +8295,10 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -8014,10 +8306,10 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -8025,10 +8317,10 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B128" s="41" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -8036,10 +8328,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B129" s="41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8047,10 +8339,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B130" s="41" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -8058,10 +8350,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B131" s="41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -8069,10 +8361,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B132" s="41" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -8080,10 +8372,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B133" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -8091,10 +8383,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B134" s="41" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -8102,10 +8394,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B135" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -8113,10 +8405,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -8124,10 +8416,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B137" s="41" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -8135,10 +8427,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -8146,10 +8438,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B139" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -8157,10 +8449,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B140" s="41" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -8168,10 +8460,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B141" s="41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -8179,10 +8471,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B142" s="41" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -8190,10 +8482,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B143" s="41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -8201,10 +8493,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B144" s="41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -8212,10 +8504,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B145" s="41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -8223,10 +8515,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B146" s="41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -8234,10 +8526,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -8245,10 +8537,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B148" s="41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -8256,10 +8548,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B149" s="41" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -8267,10 +8559,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B150" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -8278,10 +8570,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B151" s="41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -8289,10 +8581,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B152" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -8300,10 +8592,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B153" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -8311,10 +8603,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B154" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -8322,10 +8614,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B155" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -8333,10 +8625,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -8344,10 +8636,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B157" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -8355,10 +8647,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B158" s="41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -8366,10 +8658,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B159" s="41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -8377,10 +8669,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B160" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -8388,10 +8680,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B161" s="41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -8399,10 +8691,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B162" s="41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -8410,10 +8702,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B163" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -8421,10 +8713,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B164" s="41" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -8432,10 +8724,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -8443,10 +8735,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B166" s="41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -8454,10 +8746,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B167" s="41" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -8465,10 +8757,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B168" s="41" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -8476,10 +8768,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B169" s="41" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -8487,10 +8779,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B170" s="41" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -8498,10 +8790,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B171" s="41" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -8509,10 +8801,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B172" s="41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -8520,10 +8812,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B173" s="41" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -8531,10 +8823,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -8542,10 +8834,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -8553,10 +8845,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B176" s="41" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -8564,10 +8856,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B177" s="41" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -8575,10 +8867,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B178" s="41" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -8586,10 +8878,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B179" s="41" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -8597,10 +8889,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B180" s="41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -8608,10 +8900,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B181" s="41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -8619,10 +8911,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B182" s="41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -8630,10 +8922,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -8641,10 +8933,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -8652,10 +8944,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B185" s="41" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -8663,10 +8955,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -8674,10 +8966,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B187" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -8685,10 +8977,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B188" s="41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -8696,10 +8988,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B189" s="41" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -8707,10 +8999,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B190" s="41" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -8718,10 +9010,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B191" s="41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -8729,10 +9021,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -8740,10 +9032,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B193" s="41" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -8751,10 +9043,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B194" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -8762,10 +9054,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B195" s="41" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -8773,10 +9065,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B196" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -8784,10 +9076,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B197" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -8795,10 +9087,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B198" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -8806,10 +9098,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B199" s="41" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -8817,10 +9109,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B200" s="41" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -8828,10 +9120,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -8839,10 +9131,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B202" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -8850,7 +9142,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B203" s="41" t="s">
         <v>68</v>
@@ -8861,10 +9153,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B204" s="41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -8872,10 +9164,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -8883,10 +9175,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B206" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -8894,10 +9186,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -8905,10 +9197,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B208" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -8916,10 +9208,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B209" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -8927,10 +9219,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -8938,10 +9230,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B211" s="41" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -8949,10 +9241,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B212" s="41" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -8960,10 +9252,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B213" s="41" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -8971,10 +9263,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B214" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -8982,10 +9274,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -8993,7 +9285,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B216" s="41" t="s">
         <v>58</v>
@@ -9004,10 +9296,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B217" s="41" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -9015,10 +9307,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -9026,10 +9318,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -9037,10 +9329,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B220" s="41" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -9048,10 +9340,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B221" s="41" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -9059,10 +9351,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -9070,10 +9362,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B223" s="41" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -9081,10 +9373,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B224" s="41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -9092,10 +9384,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B225" s="41" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -9103,10 +9395,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B226" s="41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -9114,10 +9406,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B227" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -9125,10 +9417,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B228" s="41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -9136,10 +9428,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B229" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -9147,10 +9439,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B230" s="41" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -9158,10 +9450,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B231" s="41" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -9169,10 +9461,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B232" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -9180,10 +9472,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B233" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -9191,10 +9483,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B234" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -9202,10 +9494,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B235" s="41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -9213,10 +9505,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B236" s="41" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -9224,10 +9516,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B237" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -9235,10 +9527,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B238" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -9246,10 +9538,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B239" s="41" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -9257,10 +9549,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B240" s="41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -9268,10 +9560,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -9279,10 +9571,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B242" s="41" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -9290,10 +9582,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B243" s="41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -9301,10 +9593,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B244" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -9312,10 +9604,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B245" s="41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -9323,10 +9615,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B246" s="41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -9334,10 +9626,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B247" s="41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -9345,10 +9637,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B248" s="41" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -9356,10 +9648,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B249" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -9367,10 +9659,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B250" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -9378,10 +9670,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B251" s="41" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -9389,10 +9681,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B252" s="41" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -9400,10 +9692,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B253" s="41" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -9411,10 +9703,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B254" s="41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -9422,10 +9714,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B255" s="41" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -9433,10 +9725,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B256" s="41" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -9444,10 +9736,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B257" s="41" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -9455,10 +9747,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B258" s="41" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -9466,10 +9758,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B259" s="41" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -9477,10 +9769,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B260" s="41" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -9488,10 +9780,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B261" s="41" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -9499,10 +9791,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B262" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -9510,10 +9802,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B263" s="41" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -9521,10 +9813,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B264" s="41" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -9532,10 +9824,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B265" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -9543,10 +9835,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B266" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -9554,10 +9846,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B267" s="41" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -9565,10 +9857,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B268" s="41" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -9576,10 +9868,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B269" s="41" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -9587,10 +9879,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B270" s="41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -9598,10 +9890,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B271" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -9609,10 +9901,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B272" s="41" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -9620,10 +9912,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B273" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -9631,14 +9923,1168 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B274" s="41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="24.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="42.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>847</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>847</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="H77" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
